--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>583165.6007901386</v>
+        <v>585105.6806599213</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592084</v>
+        <v>925407.278659208</v>
       </c>
     </row>
     <row r="8">
@@ -656,67 +658,67 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>109.8489596931843</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T2" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V2" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="G2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H2" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>173.7976853918352</v>
+        <v>17.76425168466123</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
@@ -899,70 +901,70 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S5" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T5" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U5" t="n">
+        <v>219.4759005688517</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.7736570458744</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>14.44019161768564</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1145,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>236.5574327625856</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>242.2819443339098</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>18.62406031006297</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>37.05763646578577</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1509,7 +1511,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>145.8355658494302</v>
+        <v>59.33202238395851</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>36.36486963835932</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>242.2819443339098</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>168.9616139056444</v>
@@ -1746,7 +1748,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>145.8355658494302</v>
+        <v>240.5305456105214</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1786,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.29987199599606</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>125.9059726800905</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H20" t="n">
         <v>274.2838073416025</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2160,19 +2162,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>43.7471526171682</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>50.48206958852121</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="D23" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>264.3952212715416</v>
-      </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>91.87187801509779</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>176.2872947967452</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>29.907560127089</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>274.2838073416025</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>274.2838073416025</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>274.2838073416025</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.5891775064833</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>274.2838073416025</v>
-      </c>
       <c r="X26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2649,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>72.99926930069432</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.3825319082687</v>
@@ -2691,16 +2693,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>103.3959996212457</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.43010407512099</v>
+        <v>18.62406031006285</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2874,16 +2876,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>78.71964920959023</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>117.2089128246743</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>241.5891775064831</v>
+      </c>
+      <c r="D32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>78.71964920959023</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>86.5218902014168</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.2838073416025</v>
+        <v>104.7837252564226</v>
       </c>
       <c r="C35" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3348,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>122.4805178521569</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>153.4237150659563</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.2838073416025</v>
+        <v>242.2819443339098</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>241.5891775064833</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,13 +3584,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>94.83392256923614</v>
+        <v>56.33873757156685</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>29.90756012708897</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="D41" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C41" t="n">
-        <v>240.9299003719209</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3870,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>153.4237150659563</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3885,7 +3887,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3940,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G44" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4122,7 +4124,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>58.72873530486501</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>29.90756012708899</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820.0808785163064</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="C2" t="n">
-        <v>820.0808785163064</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="D2" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E2" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F2" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G2" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H2" t="n">
         <v>21.9427045873282</v>
@@ -4340,7 +4342,7 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
         <v>984.9899813536997</v>
@@ -4355,25 +4357,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>663.9735435886729</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>409.9556005820623</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.13522936641</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.13522936641</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.13522936641</v>
+        <v>132.9012497319588</v>
       </c>
       <c r="Y2" t="n">
-        <v>1097.13522936641</v>
+        <v>132.9012497319588</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.2841263065671</v>
+        <v>499.8936553037125</v>
       </c>
       <c r="C3" t="n">
-        <v>169.5310112283843</v>
+        <v>327.1405402255297</v>
       </c>
       <c r="D3" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E3" t="n">
         <v>21.9427045873282</v>
@@ -4410,19 +4412,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>29.88839882768988</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>277.9660032696079</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>549.5069725377944</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
         <v>1015.957061350112</v>
@@ -4446,13 +4448,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>921.5820117988997</v>
+        <v>1079.191540796045</v>
       </c>
       <c r="X3" t="n">
-        <v>715.0551132044772</v>
+        <v>872.6646422016225</v>
       </c>
       <c r="Y3" t="n">
-        <v>509.3266774281276</v>
+        <v>666.936206425273</v>
       </c>
     </row>
     <row r="4">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D5" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E5" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
         <v>21.9427045873282</v>
@@ -4574,13 +4576,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4589,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="X5" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981.2022424513852</v>
+        <v>517.8373438740774</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>517.8373438740774</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>517.8373438740774</v>
       </c>
       <c r="E6" t="n">
         <v>503.251291735001</v>
@@ -4644,16 +4646,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M6" t="n">
-        <v>688.1965482020685</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N6" t="n">
         <v>748.0774423727912</v>
@@ -4686,10 +4688,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X6" t="n">
-        <v>1097.13522936641</v>
+        <v>890.6083307719874</v>
       </c>
       <c r="Y6" t="n">
-        <v>1097.13522936641</v>
+        <v>684.8798949956379</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G8" t="n">
-        <v>506.9602726118625</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4832,22 +4834,22 @@
         <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>745.907174392252</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U8" t="n">
-        <v>745.907174392252</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y8" t="n">
-        <v>745.907174392252</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4889,13 @@
         <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>416.655578933882</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M9" t="n">
-        <v>688.1965482020685</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N9" t="n">
-        <v>959.7375174702549</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O9" t="n">
         <v>1015.957061350112</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>594.8635884189121</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="C11" t="n">
-        <v>594.8635884189121</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="D11" t="n">
-        <v>594.8635884189121</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="E11" t="n">
-        <v>594.8635884189121</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="F11" t="n">
-        <v>594.8635884189121</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G11" t="n">
-        <v>317.8092375688085</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H11" t="n">
-        <v>40.75488671870494</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I11" t="n">
         <v>21.9427045873282</v>
@@ -5048,13 +5050,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P11" t="n">
         <v>1093.116282134284</v>
@@ -5063,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S11" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T11" t="n">
-        <v>871.9179392690156</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U11" t="n">
-        <v>871.9179392690156</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V11" t="n">
-        <v>871.9179392690156</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="W11" t="n">
-        <v>871.9179392690156</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="X11" t="n">
-        <v>871.9179392690156</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="Y11" t="n">
-        <v>871.9179392690156</v>
+        <v>229.2399852622009</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K12" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L12" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M12" t="n">
-        <v>548.9545891439176</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N12" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O12" t="n">
-        <v>1088.375177389425</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P12" t="n">
         <v>1097.13522936641</v>
@@ -5157,13 +5159,13 @@
         <v>169.25135696049</v>
       </c>
       <c r="W12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="X12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I13" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J13" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K13" t="n">
         <v>21.9427045873282</v>
@@ -5218,31 +5220,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C14" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D14" t="n">
-        <v>543.0265276662028</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E14" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F14" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G14" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H14" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I14" t="n">
         <v>21.9427045873282</v>
@@ -5300,28 +5302,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R14" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S14" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T14" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U14" t="n">
-        <v>1097.13522936641</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V14" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W14" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X14" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y14" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5357,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K15" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M15" t="n">
-        <v>548.9545891439176</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N15" t="n">
         <v>630.6851405540922</v>
@@ -5379,19 +5381,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R15" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S15" t="n">
-        <v>830.8154377838487</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T15" t="n">
-        <v>630.4290419169106</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U15" t="n">
-        <v>403.5026004348891</v>
+        <v>499.1540951430621</v>
       </c>
       <c r="V15" t="n">
-        <v>169.25135696049</v>
+        <v>264.902851668663</v>
       </c>
       <c r="W15" t="n">
         <v>21.9427045873282</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J16" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
@@ -5455,31 +5457,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.6025577647144</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C17" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D17" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E17" t="n">
-        <v>21.9427045873282</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F17" t="n">
-        <v>21.9427045873282</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="G17" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="H17" t="n">
         <v>21.9427045873282</v>
@@ -5537,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S17" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T17" t="n">
-        <v>520.6898842948577</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U17" t="n">
-        <v>266.6719412882472</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V17" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W17" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X17" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>503.251291735001</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C18" t="n">
-        <v>503.251291735001</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D18" t="n">
-        <v>503.251291735001</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E18" t="n">
         <v>503.251291735001</v>
@@ -5592,13 +5594,13 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J18" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L18" t="n">
-        <v>204.9955038364183</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M18" t="n">
         <v>476.5364731046047</v>
@@ -5616,28 +5618,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U18" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V18" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W18" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X18" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y18" t="n">
-        <v>503.251291735001</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="D20" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="E20" t="n">
+        <v>820.0808785163064</v>
+      </c>
+      <c r="F20" t="n">
         <v>576.7173427870933</v>
-      </c>
-      <c r="C20" t="n">
-        <v>576.7173427870933</v>
-      </c>
-      <c r="D20" t="n">
-        <v>299.6629919369898</v>
-      </c>
-      <c r="E20" t="n">
-        <v>299.6629919369898</v>
-      </c>
-      <c r="F20" t="n">
-        <v>299.6629919369898</v>
       </c>
       <c r="G20" t="n">
         <v>299.6629919369898</v>
@@ -5783,19 +5785,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V20" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W20" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X20" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y20" t="n">
-        <v>853.7716936371969</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66.13174763497284</v>
+        <v>695.8414347704503</v>
       </c>
       <c r="C21" t="n">
-        <v>66.13174763497284</v>
+        <v>523.0883196922675</v>
       </c>
       <c r="D21" t="n">
-        <v>66.13174763497284</v>
+        <v>375.5000130512114</v>
       </c>
       <c r="E21" t="n">
-        <v>66.13174763497284</v>
+        <v>217.8904840540661</v>
       </c>
       <c r="F21" t="n">
-        <v>21.9427045873282</v>
+        <v>72.93469407068295</v>
       </c>
       <c r="G21" t="n">
         <v>21.9427045873282</v>
@@ -5832,19 +5834,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>168.577974491964</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L21" t="n">
-        <v>286.1736718527163</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M21" t="n">
-        <v>557.7146411209028</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N21" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O21" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P21" t="n">
         <v>1097.13522936641</v>
@@ -5856,25 +5858,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T21" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V21" t="n">
-        <v>692.2156890176225</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W21" t="n">
-        <v>439.7011973509558</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="X21" t="n">
-        <v>233.1742987565333</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="Y21" t="n">
-        <v>233.1742987565333</v>
+        <v>862.8839858920107</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L22" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M22" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N22" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O22" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S22" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U22" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.0085846595923</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C23" t="n">
-        <v>289.0085846595923</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="D23" t="n">
-        <v>21.94270458732809</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E23" t="n">
-        <v>21.94270458732809</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F23" t="n">
-        <v>21.94270458732809</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G23" t="n">
-        <v>21.94270458732809</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H23" t="n">
-        <v>21.94270458732809</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I23" t="n">
-        <v>21.94270458732809</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J23" t="n">
-        <v>21.94270458732809</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K23" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L23" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P23" t="n">
         <v>1093.116282134284</v>
@@ -6020,19 +6022,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U23" t="n">
-        <v>843.1172863597994</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>843.1172863597994</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>566.0629355096959</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X23" t="n">
-        <v>566.0629355096959</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y23" t="n">
-        <v>566.0629355096959</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>417.3079003507837</v>
+        <v>342.2841263065671</v>
       </c>
       <c r="C24" t="n">
-        <v>417.3079003507837</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D24" t="n">
-        <v>324.5080235678566</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E24" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F24" t="n">
         <v>21.9427045873282</v>
@@ -6069,22 +6071,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L24" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M24" t="n">
-        <v>630.6851405540922</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O24" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P24" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
@@ -6093,25 +6095,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T24" t="n">
-        <v>896.7488334994719</v>
+        <v>726.0805366250836</v>
       </c>
       <c r="U24" t="n">
-        <v>669.8223920174504</v>
+        <v>548.0125620829167</v>
       </c>
       <c r="V24" t="n">
-        <v>669.8223920174504</v>
+        <v>548.0125620829167</v>
       </c>
       <c r="W24" t="n">
-        <v>417.3079003507837</v>
+        <v>548.0125620829167</v>
       </c>
       <c r="X24" t="n">
-        <v>417.3079003507837</v>
+        <v>548.0125620829167</v>
       </c>
       <c r="Y24" t="n">
-        <v>417.3079003507837</v>
+        <v>342.2841263065671</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>172.4533778343175</v>
       </c>
       <c r="D25" t="n">
         <v>21.9427045873282</v>
@@ -6178,19 +6180,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="C26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="D26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G26" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H26" t="n">
         <v>21.9427045873282</v>
@@ -6263,13 +6265,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W26" t="n">
-        <v>820.0808785163064</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="X26" t="n">
-        <v>543.0265276662028</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="Y26" t="n">
-        <v>265.9721768160992</v>
+        <v>853.1057571376391</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763848</v>
       </c>
       <c r="C27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763848</v>
       </c>
       <c r="D27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763848</v>
       </c>
       <c r="E27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763848</v>
       </c>
       <c r="F27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763848</v>
       </c>
       <c r="G27" t="n">
-        <v>21.9427045873282</v>
+        <v>183.0566568763848</v>
       </c>
       <c r="H27" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I27" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K27" t="n">
-        <v>29.3360154338131</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4136198757311</v>
+        <v>204.9955038364184</v>
       </c>
       <c r="M27" t="n">
-        <v>548.9545891439176</v>
+        <v>476.5364731046049</v>
       </c>
       <c r="N27" t="n">
-        <v>820.4955584121041</v>
+        <v>748.0774423727914</v>
       </c>
       <c r="O27" t="n">
-        <v>1088.375177389425</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P27" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
@@ -6330,25 +6332,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S27" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T27" t="n">
-        <v>726.0805366250836</v>
+        <v>896.7488334994721</v>
       </c>
       <c r="U27" t="n">
-        <v>499.1540951430621</v>
+        <v>669.8223920174506</v>
       </c>
       <c r="V27" t="n">
-        <v>394.7136914852382</v>
+        <v>435.5711485430515</v>
       </c>
       <c r="W27" t="n">
-        <v>394.7136914852382</v>
+        <v>183.0566568763848</v>
       </c>
       <c r="X27" t="n">
-        <v>394.7136914852382</v>
+        <v>183.0566568763848</v>
       </c>
       <c r="Y27" t="n">
-        <v>188.9852557088886</v>
+        <v>183.0566568763848</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L28" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M28" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N28" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O28" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R28" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>617.899996262405</v>
+        <v>317.8092375688084</v>
       </c>
       <c r="C29" t="n">
-        <v>617.899996262405</v>
+        <v>40.75488671870482</v>
       </c>
       <c r="D29" t="n">
-        <v>617.899996262405</v>
+        <v>40.75488671870482</v>
       </c>
       <c r="E29" t="n">
-        <v>617.899996262405</v>
+        <v>40.75488671870482</v>
       </c>
       <c r="F29" t="n">
-        <v>617.899996262405</v>
+        <v>40.75488671870482</v>
       </c>
       <c r="G29" t="n">
-        <v>340.8456454123015</v>
+        <v>40.75488671870482</v>
       </c>
       <c r="H29" t="n">
-        <v>63.79129456219789</v>
+        <v>40.75488671870482</v>
       </c>
       <c r="I29" t="n">
         <v>21.9427045873282</v>
@@ -6494,19 +6496,19 @@
         <v>871.9179392690156</v>
       </c>
       <c r="U29" t="n">
-        <v>617.899996262405</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V29" t="n">
-        <v>617.899996262405</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W29" t="n">
-        <v>617.899996262405</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="X29" t="n">
-        <v>617.899996262405</v>
+        <v>317.8092375688084</v>
       </c>
       <c r="Y29" t="n">
-        <v>617.899996262405</v>
+        <v>317.8092375688084</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>724.3642424684999</v>
+        <v>339.6516096488941</v>
       </c>
       <c r="C30" t="n">
-        <v>551.6111273903171</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="D30" t="n">
-        <v>404.0228207492609</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="E30" t="n">
-        <v>246.4132917521156</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F30" t="n">
-        <v>101.4575017687325</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G30" t="n">
         <v>21.9427045873282</v>
@@ -6540,52 +6542,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>21.9427045873282</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K30" t="n">
-        <v>21.9427045873282</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L30" t="n">
-        <v>270.0203090292462</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M30" t="n">
-        <v>541.5612782974326</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="N30" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O30" t="n">
-        <v>1015.957061350112</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P30" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S30" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838489</v>
       </c>
       <c r="T30" t="n">
-        <v>1097.13522936641</v>
+        <v>712.4225965468041</v>
       </c>
       <c r="U30" t="n">
-        <v>1097.13522936641</v>
+        <v>712.4225965468041</v>
       </c>
       <c r="V30" t="n">
-        <v>1097.13522936641</v>
+        <v>712.4225965468041</v>
       </c>
       <c r="W30" t="n">
-        <v>1097.13522936641</v>
+        <v>712.4225965468041</v>
       </c>
       <c r="X30" t="n">
-        <v>1097.13522936641</v>
+        <v>712.4225965468041</v>
       </c>
       <c r="Y30" t="n">
-        <v>891.4067935900604</v>
+        <v>506.6941607704546</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="C31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="D31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="E31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L31" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M31" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N31" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O31" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P31" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R31" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T31" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U31" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V31" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="X31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C32" t="n">
-        <v>543.0265276662028</v>
+        <v>853.1057571376391</v>
       </c>
       <c r="D32" t="n">
-        <v>543.0265276662028</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="E32" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875354</v>
       </c>
       <c r="F32" t="n">
-        <v>265.9721768160992</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G32" t="n">
-        <v>265.9721768160992</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H32" t="n">
         <v>21.9427045873282</v>
@@ -6740,10 +6742,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X32" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y32" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>724.3642424684999</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="C33" t="n">
-        <v>551.6111273903171</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D33" t="n">
-        <v>404.0228207492609</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E33" t="n">
-        <v>246.4132917521156</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F33" t="n">
-        <v>101.4575017687325</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G33" t="n">
         <v>21.9427045873282</v>
@@ -6777,25 +6779,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L33" t="n">
-        <v>277.4136198757311</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M33" t="n">
-        <v>548.9545891439176</v>
+        <v>293.4836738555147</v>
       </c>
       <c r="N33" t="n">
-        <v>549.5069725377944</v>
+        <v>565.0246431237013</v>
       </c>
       <c r="O33" t="n">
-        <v>817.386591515115</v>
+        <v>832.9042621010219</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1031.474731936019</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6804,25 +6806,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S33" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920219</v>
       </c>
       <c r="T33" t="n">
-        <v>1097.13522936641</v>
+        <v>839.0710838037221</v>
       </c>
       <c r="U33" t="n">
-        <v>1097.13522936641</v>
+        <v>839.0710838037221</v>
       </c>
       <c r="V33" t="n">
-        <v>1097.13522936641</v>
+        <v>604.819840329323</v>
       </c>
       <c r="W33" t="n">
-        <v>1097.13522936641</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="X33" t="n">
-        <v>1097.13522936641</v>
+        <v>352.3053486626563</v>
       </c>
       <c r="Y33" t="n">
-        <v>891.4067935900604</v>
+        <v>352.3053486626563</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>953.5014183521106</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M34" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O34" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V34" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>265.9721768160992</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="C35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="D35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="E35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="F35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I35" t="n">
         <v>21.9427045873282</v>
@@ -6950,10 +6952,10 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P35" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q35" t="n">
         <v>1097.13522936641</v>
@@ -6962,25 +6964,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860674</v>
       </c>
       <c r="T35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860674</v>
       </c>
       <c r="U35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860674</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860674</v>
       </c>
       <c r="W35" t="n">
-        <v>820.0808785163064</v>
+        <v>612.1364828359638</v>
       </c>
       <c r="X35" t="n">
-        <v>820.0808785163064</v>
+        <v>612.1364828359638</v>
       </c>
       <c r="Y35" t="n">
-        <v>543.0265276662028</v>
+        <v>335.0821319858601</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.9427045873282</v>
+        <v>774.5572931762157</v>
       </c>
       <c r="C36" t="n">
-        <v>21.9427045873282</v>
+        <v>774.5572931762157</v>
       </c>
       <c r="D36" t="n">
-        <v>21.9427045873282</v>
+        <v>626.9689865351595</v>
       </c>
       <c r="E36" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F36" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G36" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H36" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I36" t="n">
         <v>21.9427045873282</v>
@@ -7017,19 +7019,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L36" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>680.8032373555836</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N36" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O36" t="n">
-        <v>1097.13522936641</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P36" t="n">
         <v>1097.13522936641</v>
@@ -7038,28 +7040,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R36" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S36" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T36" t="n">
-        <v>942.1617798048379</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U36" t="n">
-        <v>715.2353383228165</v>
+        <v>774.5572931762157</v>
       </c>
       <c r="V36" t="n">
-        <v>480.9840948484174</v>
+        <v>774.5572931762157</v>
       </c>
       <c r="W36" t="n">
-        <v>228.4696031817507</v>
+        <v>774.5572931762157</v>
       </c>
       <c r="X36" t="n">
-        <v>21.9427045873282</v>
+        <v>774.5572931762157</v>
       </c>
       <c r="Y36" t="n">
-        <v>21.9427045873282</v>
+        <v>774.5572931762157</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>576.0514062875353</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="C38" t="n">
-        <v>576.0514062875353</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="D38" t="n">
-        <v>576.0514062875353</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="E38" t="n">
-        <v>298.9970554374318</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="F38" t="n">
-        <v>298.9970554374318</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="G38" t="n">
-        <v>298.9970554374318</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="H38" t="n">
         <v>21.9427045873282</v>
@@ -7196,28 +7198,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S38" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T38" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U38" t="n">
-        <v>853.1057571376389</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V38" t="n">
-        <v>853.1057571376389</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="W38" t="n">
-        <v>853.1057571376389</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="X38" t="n">
-        <v>576.0514062875353</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="Y38" t="n">
-        <v>576.0514062875353</v>
+        <v>266.6719412882472</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>265.3228522074107</v>
+        <v>236.4600493133289</v>
       </c>
       <c r="C39" t="n">
-        <v>169.5310112283843</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D39" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E39" t="n">
         <v>21.9427045873282</v>
@@ -7251,52 +7253,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>29.3360154338131</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4136198757311</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M39" t="n">
-        <v>545.8456222469285</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="N39" t="n">
-        <v>817.386591515115</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O39" t="n">
-        <v>817.386591515115</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P39" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q39" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S39" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838489</v>
       </c>
       <c r="T39" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169108</v>
       </c>
       <c r="U39" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348894</v>
       </c>
       <c r="V39" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348894</v>
       </c>
       <c r="W39" t="n">
-        <v>844.6207376997432</v>
+        <v>403.5026004348894</v>
       </c>
       <c r="X39" t="n">
-        <v>638.0938391053207</v>
+        <v>403.5026004348894</v>
       </c>
       <c r="Y39" t="n">
-        <v>432.3654033289712</v>
+        <v>403.5026004348894</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="C40" t="n">
-        <v>1066.925572672381</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253914</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253914</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253914</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253914</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253914</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253914</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253914</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253914</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521106</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M40" t="n">
         <v>1003.19685226905</v>
@@ -7369,13 +7371,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W40" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="X40" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.13522936641</v>
+        <v>916.4148994253916</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>265.9721768160992</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C41" t="n">
-        <v>22.60864108688619</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="D41" t="n">
-        <v>22.60864108688619</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="E41" t="n">
-        <v>22.60864108688619</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F41" t="n">
-        <v>22.60864108688619</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I41" t="n">
-        <v>22.60864108688619</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
@@ -7451,10 +7453,10 @@
         <v>1097.13522936641</v>
       </c>
       <c r="X41" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y41" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K42" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L42" t="n">
-        <v>359.1441712859057</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M42" t="n">
-        <v>359.1441712859057</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O42" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P42" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q42" t="n">
         <v>1097.13522936641</v>
@@ -7518,19 +7520,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>942.1617798048379</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>715.2353383228165</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V42" t="n">
-        <v>480.9840948484174</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W42" t="n">
-        <v>228.4696031817507</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X42" t="n">
-        <v>21.9427045873282</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y42" t="n">
         <v>21.9427045873282</v>
@@ -7588,13 +7590,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R43" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
         <v>21.9427045873282</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>265.9721768160992</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C44" t="n">
-        <v>265.9721768160992</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D44" t="n">
-        <v>265.9721768160992</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E44" t="n">
-        <v>265.9721768160992</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F44" t="n">
-        <v>265.9721768160992</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
@@ -7658,13 +7660,13 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
@@ -7685,13 +7687,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W44" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X44" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
-        <v>265.9721768160992</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7727,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L45" t="n">
-        <v>161.1846636454791</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M45" t="n">
-        <v>359.1441712859057</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N45" t="n">
         <v>630.6851405540922</v>
@@ -7749,25 +7751,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>774.5572931762155</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V45" t="n">
-        <v>540.3060497018164</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W45" t="n">
-        <v>287.7915580351497</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X45" t="n">
-        <v>81.2646594407272</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y45" t="n">
         <v>21.9427045873282</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D46" t="n">
-        <v>21.9427045873282</v>
+        <v>52.15236128135749</v>
       </c>
       <c r="E46" t="n">
-        <v>21.9427045873282</v>
+        <v>52.15236128135749</v>
       </c>
       <c r="F46" t="n">
-        <v>21.9427045873282</v>
+        <v>52.15236128135749</v>
       </c>
       <c r="G46" t="n">
-        <v>21.9427045873282</v>
+        <v>52.15236128135749</v>
       </c>
       <c r="H46" t="n">
         <v>21.9427045873282</v>
@@ -7849,7 +7851,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7993,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O2" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P2" t="n">
         <v>334.6706564983419</v>
@@ -8058,7 +8060,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.953366024118</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
@@ -8067,13 +8069,13 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
         <v>218.4803792452831</v>
@@ -8292,19 +8294,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>179.3438942156189</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>188.5439209688487</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8535,7 +8537,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>171.8759034615937</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
@@ -8544,7 +8546,7 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>195.818756393795</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
         <v>130.625047228972</v>
@@ -8766,25 +8768,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N12" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>136.482229733871</v>
@@ -9003,19 +9005,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N15" t="n">
-        <v>210.6142818167799</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9240,16 +9242,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>134.395403</v>
       </c>
       <c r="L18" t="n">
-        <v>319.9923377087007</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>412.8644904155703</v>
+        <v>339.7148782546483</v>
       </c>
       <c r="N18" t="n">
         <v>402.3419766228525</v>
@@ -9480,22 +9482,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L21" t="n">
-        <v>253.8740529730059</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N21" t="n">
-        <v>402.3419766228525</v>
+        <v>210.6142818167799</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9717,16 +9719,16 @@
         <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>362.2401502120437</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9893,7 +9895,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863012</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9954,13 +9956,13 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>385.6739591155975</v>
+        <v>171.8759034615939</v>
       </c>
       <c r="M27" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N27" t="n">
         <v>402.3419766228525</v>
@@ -9969,10 +9971,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>139.473584579462</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10188,28 +10190,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>354.7721594580187</v>
       </c>
       <c r="N30" t="n">
-        <v>336.6603552159556</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10425,19 +10427,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
         <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N33" t="n">
-        <v>128.6161323053679</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10446,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>202.8059645120439</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10665,22 +10667,22 @@
         <v>123.666686</v>
       </c>
       <c r="K36" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N36" t="n">
-        <v>278.010061234286</v>
+        <v>218.0822725708052</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
         <v>136.482229733871</v>
@@ -10899,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7241198125511</v>
+        <v>362.2401502120439</v>
       </c>
       <c r="N39" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,19 +11138,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>327.5816281580458</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>136.0841230593931</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11157,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11306,7 +11308,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N44" t="n">
-        <v>454.8408013884634</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O44" t="n">
         <v>396.0321885132552</v>
@@ -11373,19 +11375,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>338.5397817006614</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>246.7557730614141</v>
       </c>
       <c r="E2" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>165.7046859740575</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H2" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
         <v>205.224307868124</v>
@@ -22595,16 +22597,16 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -22632,7 +22634,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -22686,7 +22688,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>76.19166135816488</v>
+        <v>232.2250950653388</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22787,19 +22789,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>115.015555248115</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
         <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>32.00186300769272</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -22847,10 +22849,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.59846856447039</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>141.5932420894882</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22926,10 +22928,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23033,16 +23035,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>178.2973326412453</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23072,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>86.25127718860955</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23270,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H11" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>186.600247558061</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>291.4755850567336</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23355,7 +23357,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>104.1537809005699</v>
+        <v>190.6573243660415</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -23434,13 +23436,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R13" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S13" t="n">
         <v>222.3574069614225</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>370.9289938421815</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>414.8547654038309</v>
@@ -23513,7 +23515,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>86.25127718860955</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>104.1537809005699</v>
+        <v>9.458801139478595</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23674,10 +23676,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.460827879852118</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>173.3911476697823</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23738,16 +23740,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>338.1439033881534</v>
+        <v>96.55472588167004</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V17" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>98.75120438711075</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
@@ -23978,10 +23980,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>166.3639631086199</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H20" t="n">
         <v>63.86009604655089</v>
@@ -24023,7 +24025,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>10.54786320462352</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24048,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>99.7590794663811</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0232102050423</v>
+        <v>85.54114061652112</v>
       </c>
       <c r="H21" t="n">
         <v>110.4625155221328</v>
@@ -24096,7 +24098,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
         <v>198.3825319082687</v>
@@ -24108,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -24178,13 +24180,13 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U22" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V22" t="n">
-        <v>74.02322442533077</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>125.3959181724593</v>
       </c>
       <c r="D23" t="n">
-        <v>92.20951148305681</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G23" t="n">
         <v>414.8547654038309</v>
@@ -24260,13 +24262,13 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
@@ -24285,16 +24287,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>54.24054555954777</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>136.0232102050423</v>
@@ -24333,25 +24335,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>48.369882270456</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24364,10 +24366,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>137.4289928041133</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
@@ -24418,7 +24420,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U25" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.1272324849117</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24449,7 +24451,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -24458,7 +24460,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655084</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
@@ -24503,13 +24505,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>76.2463096589521</v>
+        <v>108.9409394940712</v>
       </c>
       <c r="X26" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -24537,10 +24539,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4625155221328</v>
+        <v>37.46324622143845</v>
       </c>
       <c r="I27" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,7 +24572,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24579,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>128.5127314184094</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -24649,10 +24651,10 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S28" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
-        <v>228.3324659915077</v>
+        <v>49.41933934989927</v>
       </c>
       <c r="U28" t="n">
         <v>286.0522703910642</v>
@@ -24680,7 +24682,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -24692,13 +24694,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H29" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
-        <v>163.794203793003</v>
+        <v>186.6002475580612</v>
       </c>
       <c r="J29" t="n">
         <v>0.6592771345624158</v>
@@ -24734,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>76.24630965895204</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24762,16 +24764,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>57.30356099545209</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H30" t="n">
         <v>110.4625155221328</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>81.17361908359436</v>
       </c>
       <c r="U30" t="n">
         <v>224.6571770672012</v>
@@ -24886,7 +24888,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S31" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T31" t="n">
         <v>228.3324659915077</v>
@@ -24898,7 +24900,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>125.3959181724595</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E32" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H32" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24980,7 +24982,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>57.30356099545209</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
         <v>110.4625155221328</v>
@@ -25044,25 +25046,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>111.8606417068519</v>
       </c>
       <c r="U33" t="n">
         <v>224.6571770672012</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -25135,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>107.1794502458071</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>109.4326026497926</v>
+        <v>278.9326847349724</v>
       </c>
       <c r="C35" t="n">
-        <v>125.3959181724593</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
@@ -25172,7 +25174,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0.6592771345624158</v>
@@ -25202,7 +25204,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>222.9651171964204</v>
@@ -25214,7 +25216,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>76.2463096589521</v>
+        <v>76.24630965895204</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25236,22 +25238,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>33.55291585501693</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T36" t="n">
-        <v>44.95881684231239</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -25363,10 +25365,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494558</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25397,7 +25399,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -25406,7 +25408,7 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H38" t="n">
-        <v>63.86009604655089</v>
+        <v>95.86195905424358</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>9.888586070061081</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25454,7 +25456,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25470,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>76.19166135816485</v>
+        <v>114.6868463558341</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -25549,10 +25551,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>137.4289928041134</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25609,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>126.0551953070217</v>
+        <v>125.3959181724593</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25758,10 +25760,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>44.95881684231239</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R43" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2049801956623</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U43" t="n">
         <v>286.0522703910642</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25871,13 +25873,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>142.1881353833666</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G44" t="n">
-        <v>173.2655878973476</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25886,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S45" t="n">
         <v>168.9616139056444</v>
@@ -25998,7 +26000,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>144.942416113721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,7 +26028,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
@@ -26038,7 +26040,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6340720089168</v>
+        <v>131.7265118818278</v>
       </c>
       <c r="I46" t="n">
         <v>153.7585467974036</v>
@@ -26089,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.83554722615986</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493554.8029506997</v>
+        <v>493554.8029506998</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493554.8029506997</v>
+        <v>493554.8029506998</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>493554.8029506998</v>
+        <v>493554.8029506997</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493554.8029506996</v>
+        <v>493554.8029506998</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493554.8029506997</v>
+        <v>493554.8029506998</v>
       </c>
     </row>
     <row r="15">
@@ -26317,10 +26319,10 @@
         <v>112565.130497528</v>
       </c>
       <c r="D2" t="n">
+        <v>112565.1304975279</v>
+      </c>
+      <c r="E2" t="n">
         <v>112565.130497528</v>
-      </c>
-      <c r="E2" t="n">
-        <v>112565.1304975279</v>
       </c>
       <c r="F2" t="n">
         <v>112565.130497528</v>
@@ -26341,7 +26343,7 @@
         <v>112565.130497528</v>
       </c>
       <c r="L2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
       <c r="M2" t="n">
         <v>112565.130497528</v>
@@ -26353,7 +26355,7 @@
         <v>112565.130497528</v>
       </c>
       <c r="P2" t="n">
-        <v>112565.130497528</v>
+        <v>112565.1304975279</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808624</v>
+        <v>71764.71248808625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26439,7 +26441,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="J4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
       <c r="K4" t="n">
         <v>205.3193574873218</v>
@@ -26451,7 +26453,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="N4" t="n">
-        <v>205.3193574873218</v>
+        <v>205.3193574873219</v>
       </c>
       <c r="O4" t="n">
         <v>205.3193574873218</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29863.05671406858</v>
+        <v>-29863.05671406861</v>
       </c>
       <c r="C6" t="n">
         <v>62055.75565367124</v>
       </c>
       <c r="D6" t="n">
-        <v>62055.75565367122</v>
+        <v>62055.75565367121</v>
       </c>
       <c r="E6" t="n">
-        <v>95683.3556536712</v>
+        <v>95683.35565367126</v>
       </c>
       <c r="F6" t="n">
         <v>95683.35565367126</v>
@@ -26540,28 +26542,28 @@
         <v>95683.35565367126</v>
       </c>
       <c r="I6" t="n">
-        <v>95683.35565367126</v>
+        <v>95683.35565367123</v>
       </c>
       <c r="J6" t="n">
         <v>23918.64316558499</v>
       </c>
       <c r="K6" t="n">
-        <v>95683.35565367123</v>
+        <v>95683.35565367124</v>
       </c>
       <c r="L6" t="n">
-        <v>95683.35565367126</v>
+        <v>95683.3556536712</v>
       </c>
       <c r="M6" t="n">
-        <v>95683.35565367126</v>
+        <v>95683.35565367121</v>
       </c>
       <c r="N6" t="n">
-        <v>95683.35565367126</v>
+        <v>95683.35565367121</v>
       </c>
       <c r="O6" t="n">
         <v>95683.35565367126</v>
       </c>
       <c r="P6" t="n">
-        <v>95683.35565367126</v>
+        <v>95683.3556536712</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O2" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P2" t="n">
         <v>109.2184856369541</v>
@@ -34778,7 +34780,7 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5579630241179641</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
@@ -34787,13 +34789,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>81.99814951141209</v>
@@ -34942,7 +34944,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>242.9064974359549</v>
+        <v>242.9064974359548</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>44.25337393024155</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>60.48575168759873</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35255,7 +35257,7 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>36.7853831762164</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
@@ -35264,7 +35266,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>56.78741806046166</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
-        <v>242.9064974359549</v>
+        <v>242.9064974359548</v>
       </c>
       <c r="N11" t="n">
         <v>231.1630643817873</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P12" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N15" t="n">
-        <v>82.55611253552989</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>270.5854737144654</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>184.9018174233233</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2838073416025</v>
+        <v>201.1341951806804</v>
       </c>
       <c r="N18" t="n">
         <v>274.2838073416025</v>
@@ -36200,22 +36202,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>118.7835326876286</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2838073416025</v>
+        <v>82.55611253552989</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36455,7 +36457,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712941</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
-        <v>250.5834388302202</v>
+        <v>36.78538317621649</v>
       </c>
       <c r="M27" t="n">
         <v>274.2838073416025</v>
@@ -36689,10 +36691,10 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>8.848537350489996</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840509</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6021859347056</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5579630241179461</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
@@ -37166,7 +37168,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>66.32373477817289</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>250.5834388302202</v>
@@ -37394,13 +37396,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>149.951891953036</v>
+        <v>90.02410328955521</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L39" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
-        <v>271.1434367385833</v>
+        <v>223.659467138076</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>192.4911078726684</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>8.025953778143149</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
@@ -37877,7 +37879,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K45" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>199.9590986266935</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>585105.6806599213</v>
+        <v>487274.4882638771</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.278659208</v>
+        <v>925407.2786592086</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="D2" t="n">
-        <v>109.8489596931843</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>17.76425168466123</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="U5" t="n">
-        <v>219.4759005688517</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.44019161768564</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>119.6224499496495</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>17.40050486091396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>18.62406031006297</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>37.05763646578577</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>59.33202238395851</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>14.2515927007277</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3825319082687</v>
+        <v>119.6224499496496</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>240.5305456105214</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,67 +1852,67 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>218.8166234342893</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S17" t="n">
+        <v>205.8649517235392</v>
+      </c>
+      <c r="T17" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="F17" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="G17" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.5891775064833</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>233.2681095287566</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>99.07907767104376</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>50.48206958852121</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,28 +2320,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>35.70559250379682</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="24">
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>176.2872947967452</v>
+        <v>174.4097407145713</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>29.907560127089</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>218.8166234342893</v>
       </c>
       <c r="W26" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
-        <v>72.99926930069432</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
-        <v>86.50354346547167</v>
+        <v>16.70463918616818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>224.6571770672012</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,28 +2794,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>150.3977678162259</v>
+      </c>
+      <c r="E29" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>18.62406031006285</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>117.2089128246743</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.359378489101499</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>5.521978971826058</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.5891775064831</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>274.2838073416025</v>
@@ -3040,14 +3040,14 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="G32" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>58.53026954800218</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.68318259541176</v>
       </c>
       <c r="S33" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>86.5218902014168</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>104.7837252564226</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>122.4805178521569</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
-        <v>242.2819443339098</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>205.8649517235392</v>
+        <v>17.96478317550064</v>
       </c>
       <c r="T38" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>56.33873757156685</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.3825319082687</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>233.2681095287568</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C41" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="F41" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>174.4097407145713</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3884,10 +3884,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>64.80783300507451</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
-        <v>240.9299003719209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G44" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>174.4097407145713</v>
+        <v>187.1939308457627</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4121,10 +4121,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>29.90756012708899</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.9012497319588</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C2" t="n">
-        <v>132.9012497319588</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E2" t="n">
         <v>21.9427045873282</v>
@@ -4342,10 +4342,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4357,25 +4357,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>889.1908336860672</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T2" t="n">
-        <v>663.9735435886729</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U2" t="n">
-        <v>409.9556005820623</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>132.9012497319588</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>132.9012497319588</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>132.9012497319588</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.9012497319588</v>
+        <v>543.0265276662028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499.8936553037125</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
-        <v>327.1405402255297</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
         <v>21.9427045873282</v>
@@ -4424,7 +4424,7 @@
         <v>959.7375174702549</v>
       </c>
       <c r="O3" t="n">
-        <v>1015.957061350112</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="P3" t="n">
         <v>1015.957061350112</v>
@@ -4436,25 +4436,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>942.1617798048379</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>715.2353383228165</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>480.9840948484174</v>
       </c>
       <c r="W3" t="n">
-        <v>1079.191540796045</v>
+        <v>228.4696031817507</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6646422016225</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y3" t="n">
-        <v>666.936206425273</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4515,25 +4515,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4576,13 +4576,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M5" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N5" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4597,22 +4597,22 @@
         <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>520.6898842948577</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="U5" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="V5" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="W5" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="X5" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="Y5" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="V5" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="W5" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="X5" t="n">
-        <v>298.9970554374318</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.8373438740774</v>
+        <v>300.382991109372</v>
       </c>
       <c r="C6" t="n">
-        <v>517.8373438740774</v>
+        <v>300.382991109372</v>
       </c>
       <c r="D6" t="n">
-        <v>517.8373438740774</v>
+        <v>300.382991109372</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>142.7734621122267</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
@@ -4649,19 +4649,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L6" t="n">
-        <v>204.9955038364183</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>476.5364731046047</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N6" t="n">
-        <v>748.0774423727912</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O6" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
         <v>1015.957061350112</v>
@@ -4673,25 +4673,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>673.952440825355</v>
       </c>
       <c r="X6" t="n">
-        <v>890.6083307719874</v>
+        <v>467.4255422309325</v>
       </c>
       <c r="Y6" t="n">
-        <v>684.8798949956379</v>
+        <v>467.4255422309325</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4749,28 +4749,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C8" t="n">
         <v>21.9427045873282</v>
@@ -4831,25 +4831,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T8" t="n">
-        <v>520.6898842948577</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U8" t="n">
-        <v>266.6719412882472</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V8" t="n">
-        <v>21.9427045873282</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W8" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X8" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>981.2022424513852</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="C9" t="n">
-        <v>808.4491273732024</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="D9" t="n">
-        <v>660.8608207321463</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="E9" t="n">
-        <v>503.251291735001</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>39.51897212360493</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>39.51897212360493</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L9" t="n">
-        <v>204.9955038364183</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M9" t="n">
-        <v>476.5364731046047</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N9" t="n">
-        <v>748.0774423727912</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4916,19 +4916,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.13522936641</v>
+        <v>176.9161541489002</v>
       </c>
     </row>
     <row r="10">
@@ -4983,22 +4983,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
         <v>21.9427045873282</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>229.2399852622009</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="C11" t="n">
-        <v>229.2399852622009</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="D11" t="n">
-        <v>229.2399852622009</v>
+        <v>594.8635884189121</v>
       </c>
       <c r="E11" t="n">
-        <v>229.2399852622009</v>
+        <v>317.8092375688085</v>
       </c>
       <c r="F11" t="n">
-        <v>229.2399852622009</v>
+        <v>40.75488671870494</v>
       </c>
       <c r="G11" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I11" t="n">
         <v>21.9427045873282</v>
@@ -5050,13 +5050,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N11" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O11" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
         <v>1093.116282134284</v>
@@ -5065,28 +5065,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R11" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S11" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T11" t="n">
-        <v>520.6898842948577</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="U11" t="n">
-        <v>266.6719412882472</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="V11" t="n">
-        <v>229.2399852622009</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="W11" t="n">
-        <v>229.2399852622009</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2399852622009</v>
+        <v>871.9179392690156</v>
       </c>
       <c r="Y11" t="n">
-        <v>229.2399852622009</v>
+        <v>871.9179392690156</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I12" t="n">
         <v>21.9427045873282</v>
@@ -5126,10 +5126,10 @@
         <v>161.1846636454791</v>
       </c>
       <c r="L12" t="n">
-        <v>409.2622680873972</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M12" t="n">
-        <v>630.6851405540922</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N12" t="n">
         <v>630.6851405540922</v>
@@ -5144,28 +5144,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R12" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S12" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T12" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U12" t="n">
-        <v>403.5026004348891</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V12" t="n">
-        <v>169.25135696049</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W12" t="n">
-        <v>109.3200212191178</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X12" t="n">
-        <v>109.3200212191178</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y12" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I13" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J13" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K13" t="n">
         <v>21.9427045873282</v>
@@ -5232,19 +5232,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.9427045873282</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="C14" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="D14" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="F14" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123045</v>
       </c>
       <c r="G14" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H14" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I14" t="n">
         <v>21.9427045873282</v>
@@ -5281,19 +5281,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K14" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L14" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N14" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O14" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P14" t="n">
         <v>1093.116282134284</v>
@@ -5311,19 +5311,19 @@
         <v>520.6898842948577</v>
       </c>
       <c r="U14" t="n">
-        <v>266.6719412882472</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V14" t="n">
-        <v>21.9427045873282</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W14" t="n">
-        <v>21.9427045873282</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X14" t="n">
-        <v>21.9427045873282</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.9427045873282</v>
+        <v>520.6898842948577</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="D15" t="n">
-        <v>21.9427045873282</v>
+        <v>179.5522335844735</v>
       </c>
       <c r="E15" t="n">
         <v>21.9427045873282</v>
@@ -5357,25 +5357,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L15" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M15" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N15" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O15" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P15" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q15" t="n">
         <v>1097.13522936641</v>
@@ -5387,22 +5387,22 @@
         <v>926.4669324920217</v>
       </c>
       <c r="T15" t="n">
-        <v>726.0805366250836</v>
+        <v>805.6361749671231</v>
       </c>
       <c r="U15" t="n">
-        <v>499.1540951430621</v>
+        <v>805.6361749671231</v>
       </c>
       <c r="V15" t="n">
-        <v>264.902851668663</v>
+        <v>805.6361749671231</v>
       </c>
       <c r="W15" t="n">
-        <v>21.9427045873282</v>
+        <v>553.1216833004564</v>
       </c>
       <c r="X15" t="n">
-        <v>21.9427045873282</v>
+        <v>346.5947847060339</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.9427045873282</v>
+        <v>346.5947847060339</v>
       </c>
     </row>
     <row r="16">
@@ -5457,16 +5457,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U16" t="n">
         <v>21.9427045873282</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1097.13522936641</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="C17" t="n">
-        <v>1097.13522936641</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="D17" t="n">
-        <v>1097.13522936641</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="E17" t="n">
-        <v>820.0808785163064</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="F17" t="n">
-        <v>543.0265276662028</v>
+        <v>243.6355334447542</v>
       </c>
       <c r="G17" t="n">
-        <v>265.9721768160992</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H17" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I17" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J17" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K17" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L17" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M17" t="n">
         <v>586.1689795623909</v>
@@ -5539,28 +5539,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R17" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S17" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="W17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="X17" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="Y17" t="n">
-        <v>1097.13522936641</v>
+        <v>243.6355334447542</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C18" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D18" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E18" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I18" t="n">
         <v>21.9427045873282</v>
@@ -5597,19 +5597,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K18" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L18" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M18" t="n">
-        <v>476.5364731046047</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N18" t="n">
-        <v>748.0774423727912</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.957061350112</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P18" t="n">
         <v>1015.957061350112</v>
@@ -5624,22 +5624,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U18" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V18" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="W18" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X18" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y18" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="19">
@@ -5700,7 +5700,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T19" t="n">
         <v>21.9427045873282</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1097.13522936641</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C20" t="n">
-        <v>1097.13522936641</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D20" t="n">
-        <v>820.0808785163064</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E20" t="n">
-        <v>820.0808785163064</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F20" t="n">
-        <v>576.7173427870933</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G20" t="n">
-        <v>299.6629919369898</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H20" t="n">
         <v>22.60864108688619</v>
@@ -5776,28 +5776,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R20" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S20" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T20" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U20" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="W20" t="n">
-        <v>1097.13522936641</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X20" t="n">
-        <v>1097.13522936641</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y20" t="n">
-        <v>1097.13522936641</v>
+        <v>22.60864108688619</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>695.8414347704503</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C21" t="n">
-        <v>523.0883196922675</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D21" t="n">
-        <v>375.5000130512114</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E21" t="n">
-        <v>217.8904840540661</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F21" t="n">
-        <v>72.93469407068295</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G21" t="n">
         <v>21.9427045873282</v>
@@ -5834,19 +5834,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K21" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L21" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M21" t="n">
-        <v>548.9545891439176</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6851405540922</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O21" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P21" t="n">
         <v>1097.13522936641</v>
@@ -5864,19 +5864,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U21" t="n">
-        <v>1097.13522936641</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8839858920107</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8839858920107</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8839858920107</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8839858920107</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V22" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W22" t="n">
         <v>21.9427045873282</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1097.13522936641</v>
+        <v>784.014623461966</v>
       </c>
       <c r="C23" t="n">
-        <v>853.1057571376389</v>
+        <v>784.014623461966</v>
       </c>
       <c r="D23" t="n">
-        <v>576.0514062875353</v>
+        <v>784.014623461966</v>
       </c>
       <c r="E23" t="n">
-        <v>298.9970554374318</v>
+        <v>784.014623461966</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H23" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I23" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J23" t="n">
         <v>21.9427045873282</v>
@@ -6013,28 +6013,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R23" t="n">
-        <v>1097.13522936641</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="S23" t="n">
-        <v>1097.13522936641</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="T23" t="n">
-        <v>1097.13522936641</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="U23" t="n">
-        <v>1097.13522936641</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="V23" t="n">
-        <v>1097.13522936641</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="W23" t="n">
-        <v>1097.13522936641</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="X23" t="n">
-        <v>1097.13522936641</v>
+        <v>1061.06897431207</v>
       </c>
       <c r="Y23" t="n">
-        <v>1097.13522936641</v>
+        <v>784.014623461966</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.2841263065671</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
-        <v>169.5310112283843</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D24" t="n">
         <v>21.9427045873282</v>
@@ -6077,16 +6077,16 @@
         <v>270.0203090292462</v>
       </c>
       <c r="M24" t="n">
-        <v>541.5612782974326</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N24" t="n">
-        <v>549.5069725377944</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O24" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P24" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q24" t="n">
         <v>1097.13522936641</v>
@@ -6095,25 +6095,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T24" t="n">
-        <v>726.0805366250836</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U24" t="n">
-        <v>548.0125620829167</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V24" t="n">
-        <v>548.0125620829167</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W24" t="n">
-        <v>548.0125620829167</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X24" t="n">
-        <v>548.0125620829167</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y24" t="n">
-        <v>342.2841263065671</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C25" t="n">
-        <v>172.4533778343175</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D25" t="n">
         <v>21.9427045873282</v>
@@ -6171,28 +6171,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R25" t="n">
-        <v>202.6630345283467</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>576.0514062875354</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C26" t="n">
-        <v>576.0514062875354</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D26" t="n">
-        <v>576.0514062875354</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E26" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F26" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G26" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H26" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I26" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J26" t="n">
         <v>21.9427045873282</v>
@@ -6250,28 +6250,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="V26" t="n">
-        <v>1097.13522936641</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="W26" t="n">
-        <v>853.1057571376391</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="X26" t="n">
-        <v>853.1057571376391</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y26" t="n">
-        <v>853.1057571376391</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>183.0566568763848</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="C27" t="n">
-        <v>183.0566568763848</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="D27" t="n">
-        <v>183.0566568763848</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="E27" t="n">
-        <v>183.0566568763848</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="F27" t="n">
-        <v>183.0566568763848</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="G27" t="n">
-        <v>183.0566568763848</v>
+        <v>150.3943760098544</v>
       </c>
       <c r="H27" t="n">
-        <v>109.3200212191178</v>
+        <v>38.81607750264959</v>
       </c>
       <c r="I27" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K27" t="n">
-        <v>168.5779744919641</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L27" t="n">
-        <v>204.9955038364184</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M27" t="n">
-        <v>476.5364731046049</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N27" t="n">
-        <v>748.0774423727914</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O27" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P27" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q27" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T27" t="n">
-        <v>896.7488334994721</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U27" t="n">
-        <v>669.8223920174506</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V27" t="n">
-        <v>435.5711485430515</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W27" t="n">
-        <v>183.0566568763848</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X27" t="n">
-        <v>183.0566568763848</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="Y27" t="n">
-        <v>183.0566568763848</v>
+        <v>287.7915580351497</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L28" t="n">
-        <v>953.5014183521108</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M28" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N28" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O28" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S28" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>916.4148994253916</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>916.4148994253916</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>916.4148994253916</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>317.8092375688084</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="C29" t="n">
-        <v>40.75488671870482</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="D29" t="n">
-        <v>40.75488671870482</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E29" t="n">
-        <v>40.75488671870482</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F29" t="n">
-        <v>40.75488671870482</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G29" t="n">
-        <v>40.75488671870482</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H29" t="n">
-        <v>40.75488671870482</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I29" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J29" t="n">
         <v>21.9427045873282</v>
@@ -6469,16 +6469,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L29" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N29" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O29" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P29" t="n">
         <v>1093.116282134284</v>
@@ -6487,28 +6487,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S29" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T29" t="n">
-        <v>871.9179392690156</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U29" t="n">
-        <v>871.9179392690156</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V29" t="n">
-        <v>871.9179392690156</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="W29" t="n">
-        <v>594.8635884189121</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="X29" t="n">
-        <v>317.8092375688084</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="Y29" t="n">
-        <v>317.8092375688084</v>
+        <v>728.6342799752003</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>339.6516096488941</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F30" t="n">
         <v>21.9427045873282</v>
@@ -6542,22 +6542,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>29.33601543381311</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K30" t="n">
-        <v>168.5779744919641</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L30" t="n">
-        <v>416.6555789338821</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M30" t="n">
-        <v>630.6851405540924</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6851405540924</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O30" t="n">
-        <v>898.5647595314132</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P30" t="n">
         <v>1097.13522936641</v>
@@ -6566,28 +6566,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>830.8154377838489</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T30" t="n">
-        <v>712.4225965468041</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U30" t="n">
-        <v>712.4225965468041</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V30" t="n">
-        <v>712.4225965468041</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W30" t="n">
-        <v>712.4225965468041</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X30" t="n">
-        <v>712.4225965468041</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y30" t="n">
-        <v>506.6941607704546</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521108</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>27.52046112452624</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V31" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C32" t="n">
-        <v>853.1057571376391</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D32" t="n">
-        <v>576.0514062875354</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E32" t="n">
-        <v>576.0514062875354</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F32" t="n">
         <v>298.9970554374318</v>
       </c>
       <c r="G32" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="H32" t="n">
         <v>21.9427045873282</v>
@@ -6706,16 +6706,16 @@
         <v>143.241092649432</v>
       </c>
       <c r="L32" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N32" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O32" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P32" t="n">
         <v>1093.116282134284</v>
@@ -6727,25 +6727,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S32" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T32" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U32" t="n">
-        <v>1097.13522936641</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="V32" t="n">
-        <v>1097.13522936641</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="W32" t="n">
-        <v>1097.13522936641</v>
+        <v>635.1728906794567</v>
       </c>
       <c r="X32" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y32" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352.3053486626563</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C33" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D33" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E33" t="n">
         <v>21.9427045873282</v>
@@ -6785,46 +6785,46 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L33" t="n">
-        <v>21.9427045873282</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M33" t="n">
-        <v>293.4836738555147</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N33" t="n">
-        <v>565.0246431237013</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O33" t="n">
-        <v>832.9042621010219</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P33" t="n">
-        <v>1031.474731936019</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R33" t="n">
-        <v>1097.13522936641</v>
+        <v>1055.03100452256</v>
       </c>
       <c r="S33" t="n">
-        <v>926.4669324920219</v>
+        <v>1055.03100452256</v>
       </c>
       <c r="T33" t="n">
-        <v>839.0710838037221</v>
+        <v>1055.03100452256</v>
       </c>
       <c r="U33" t="n">
-        <v>839.0710838037221</v>
+        <v>1055.03100452256</v>
       </c>
       <c r="V33" t="n">
-        <v>604.819840329323</v>
+        <v>820.7797610481606</v>
       </c>
       <c r="W33" t="n">
-        <v>352.3053486626563</v>
+        <v>568.2652693814939</v>
       </c>
       <c r="X33" t="n">
-        <v>352.3053486626563</v>
+        <v>361.7383707870715</v>
       </c>
       <c r="Y33" t="n">
-        <v>352.3053486626563</v>
+        <v>361.7383707870715</v>
       </c>
     </row>
     <row r="34">
@@ -6864,7 +6864,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L34" t="n">
-        <v>59.0292235140474</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M34" t="n">
         <v>108.7246574309869</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>229.2399852622009</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="C35" t="n">
-        <v>229.2399852622009</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D35" t="n">
-        <v>229.2399852622009</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E35" t="n">
-        <v>229.2399852622009</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F35" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G35" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H35" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I35" t="n">
         <v>21.9427045873282</v>
@@ -6940,19 +6940,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K35" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494322</v>
       </c>
       <c r="L35" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007957</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P35" t="n">
         <v>1093.116282134285</v>
@@ -6964,25 +6964,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S35" t="n">
-        <v>889.1908336860674</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T35" t="n">
-        <v>889.1908336860674</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U35" t="n">
-        <v>889.1908336860674</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V35" t="n">
-        <v>889.1908336860674</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W35" t="n">
-        <v>612.1364828359638</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X35" t="n">
-        <v>612.1364828359638</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y35" t="n">
-        <v>335.0821319858601</v>
+        <v>820.0808785163065</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>774.5572931762157</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C36" t="n">
-        <v>774.5572931762157</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D36" t="n">
-        <v>626.9689865351595</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E36" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H36" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I36" t="n">
         <v>21.9427045873282</v>
@@ -7028,40 +7028,40 @@
         <v>541.5612782974328</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6851405540924</v>
+        <v>549.5069725377946</v>
       </c>
       <c r="O36" t="n">
-        <v>898.5647595314132</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="P36" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R36" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S36" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T36" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>774.5572931762157</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V36" t="n">
-        <v>774.5572931762157</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W36" t="n">
-        <v>774.5572931762157</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X36" t="n">
-        <v>774.5572931762157</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y36" t="n">
-        <v>774.5572931762157</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L37" t="n">
-        <v>953.5014183521108</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M37" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N37" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O37" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T37" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U37" t="n">
-        <v>916.4148994253916</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V37" t="n">
-        <v>916.4148994253916</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.6719412882472</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="C38" t="n">
-        <v>266.6719412882472</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="D38" t="n">
-        <v>266.6719412882472</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="E38" t="n">
-        <v>266.6719412882472</v>
+        <v>576.7173427870935</v>
       </c>
       <c r="F38" t="n">
-        <v>266.6719412882472</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G38" t="n">
-        <v>266.6719412882472</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
@@ -7183,43 +7183,43 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1689795623909</v>
+        <v>586.168979562391</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q38" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R38" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S38" t="n">
-        <v>745.907174392252</v>
+        <v>1078.988983734591</v>
       </c>
       <c r="T38" t="n">
-        <v>520.6898842948577</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="U38" t="n">
-        <v>266.6719412882472</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="V38" t="n">
-        <v>266.6719412882472</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="W38" t="n">
-        <v>266.6719412882472</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="X38" t="n">
-        <v>266.6719412882472</v>
+        <v>853.7716936371971</v>
       </c>
       <c r="Y38" t="n">
-        <v>266.6719412882472</v>
+        <v>576.7173427870935</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>236.4600493133289</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
         <v>21.9427045873282</v>
@@ -7262,7 +7262,7 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M39" t="n">
-        <v>630.6851405540924</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N39" t="n">
         <v>630.6851405540924</v>
@@ -7277,28 +7277,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>830.8154377838489</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>630.4290419169108</v>
+        <v>896.7488334994721</v>
       </c>
       <c r="U39" t="n">
-        <v>403.5026004348894</v>
+        <v>669.8223920174506</v>
       </c>
       <c r="V39" t="n">
-        <v>403.5026004348894</v>
+        <v>669.8223920174506</v>
       </c>
       <c r="W39" t="n">
-        <v>403.5026004348894</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X39" t="n">
-        <v>403.5026004348894</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y39" t="n">
-        <v>403.5026004348894</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>953.5014183521108</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M40" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N40" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O40" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V40" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.4148994253916</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1097.13522936641</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C41" t="n">
-        <v>853.1057571376389</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D41" t="n">
-        <v>576.0514062875353</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E41" t="n">
-        <v>576.0514062875353</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F41" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
@@ -7456,7 +7456,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y41" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K42" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L42" t="n">
-        <v>270.0203090292462</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M42" t="n">
-        <v>541.5612782974326</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N42" t="n">
-        <v>549.5069725377944</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O42" t="n">
         <v>817.386591515115</v>
@@ -7514,25 +7514,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S42" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T42" t="n">
-        <v>1097.13522936641</v>
+        <v>801.0973387912989</v>
       </c>
       <c r="U42" t="n">
-        <v>920.9637740991661</v>
+        <v>574.1708973092774</v>
       </c>
       <c r="V42" t="n">
-        <v>686.7125306247669</v>
+        <v>339.9196538348783</v>
       </c>
       <c r="W42" t="n">
-        <v>434.1980389581003</v>
+        <v>87.40516216821155</v>
       </c>
       <c r="X42" t="n">
-        <v>227.6711403636777</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y42" t="n">
         <v>21.9427045873282</v>
@@ -7599,13 +7599,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W43" t="n">
         <v>21.9427045873282</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.0808785163064</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C44" t="n">
-        <v>820.0808785163064</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D44" t="n">
-        <v>820.0808785163064</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="E44" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="F44" t="n">
         <v>299.6629919369898</v>
       </c>
       <c r="G44" t="n">
-        <v>22.60864108688619</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H44" t="n">
         <v>22.60864108688619</v>
@@ -7663,10 +7663,10 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536999</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134285</v>
+        <v>1093.116282134284</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
@@ -7684,16 +7684,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V44" t="n">
-        <v>1097.13522936641</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W44" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X44" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y44" t="n">
-        <v>1097.13522936641</v>
+        <v>576.7173427870933</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="C45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="D45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H45" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I45" t="n">
         <v>21.9427045873282</v>
@@ -7736,7 +7736,7 @@
         <v>416.655578933882</v>
       </c>
       <c r="M45" t="n">
-        <v>416.655578933882</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N45" t="n">
         <v>630.6851405540922</v>
@@ -7757,22 +7757,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T45" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U45" t="n">
-        <v>920.9637740991661</v>
+        <v>707.6640548673884</v>
       </c>
       <c r="V45" t="n">
-        <v>686.7125306247669</v>
+        <v>473.4128113929893</v>
       </c>
       <c r="W45" t="n">
-        <v>434.1980389581003</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="X45" t="n">
-        <v>227.6711403636777</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="Y45" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D46" t="n">
-        <v>52.15236128135749</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E46" t="n">
-        <v>52.15236128135749</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F46" t="n">
-        <v>52.15236128135749</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G46" t="n">
-        <v>52.15236128135749</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H46" t="n">
         <v>21.9427045873282</v>
@@ -7845,13 +7845,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
   </sheetData>
@@ -8072,10 +8072,10 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>195.818756393795</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>187.4124652894337</v>
       </c>
       <c r="Q3" t="n">
         <v>218.4803792452831</v>
@@ -8297,10 +8297,10 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>179.3438942156189</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
@@ -8309,10 +8309,10 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>409.6168120477987</v>
+        <v>143.3589584843393</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
         <v>218.4803792452831</v>
@@ -8531,16 +8531,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>171.8759034615937</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155703</v>
+        <v>288.5325750270039</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
@@ -8552,7 +8552,7 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8710,7 +8710,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8774,13 +8774,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
-        <v>362.2401502120437</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N12" t="n">
-        <v>128.05816928125</v>
+        <v>328.0172679079435</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9014,7 +9014,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>362.2401502120437</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N15" t="n">
         <v>128.05816928125</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9245,22 +9245,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>339.7148782546483</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>402.3419766228525</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9482,22 +9482,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>412.8644904155703</v>
+        <v>281.0645842729788</v>
       </c>
       <c r="N21" t="n">
-        <v>210.6142818167799</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9725,10 +9725,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N24" t="n">
-        <v>136.0841230593931</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9895,7 +9895,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863012</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9959,22 +9959,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>171.8759034615939</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>412.8644904155704</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N27" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10199,16 +10199,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>354.7721594580187</v>
+        <v>281.0645842729788</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
         <v>136.482229733871</v>
@@ -10433,10 +10433,10 @@
         <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>412.8644904155704</v>
+        <v>146.606636852111</v>
       </c>
       <c r="N33" t="n">
         <v>402.3419766228525</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>202.8059645120439</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10676,7 +10676,7 @@
         <v>412.8644904155704</v>
       </c>
       <c r="N36" t="n">
-        <v>218.0822725708052</v>
+        <v>136.0841230593932</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10910,10 +10910,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>362.2401502120439</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>351.717636419326</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11138,22 +11138,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>412.8644904155703</v>
+        <v>269.0756763194694</v>
       </c>
       <c r="N42" t="n">
-        <v>136.0841230593931</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O42" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11384,10 +11384,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>354.7721594580186</v>
       </c>
       <c r="N45" t="n">
-        <v>344.2496456653007</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -22549,13 +22549,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>125.3959181724593</v>
       </c>
       <c r="D2" t="n">
-        <v>246.7557730614141</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F2" t="n">
         <v>407.2938634805408</v>
@@ -22597,25 +22597,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -22676,25 +22676,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>15.5378988396881</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>232.2250950653388</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -22837,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>54.80790677275081</v>
       </c>
       <c r="U5" t="n">
-        <v>32.00186300769272</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -22871,19 +22871,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>141.5932420894882</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>23.88378213389976</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -22925,13 +22925,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
-        <v>228.3324659915077</v>
+        <v>222.8104870196816</v>
       </c>
       <c r="U7" t="n">
         <v>286.0522703910642</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>250.7917621949484</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>69.10303860455771</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23156,16 +23156,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -23223,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -23241,7 +23241,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -23260,25 +23260,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>396.2307050937679</v>
       </c>
       <c r="H11" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
-        <v>291.4755850567336</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23357,7 +23357,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>190.6573243660415</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23497,7 +23497,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>352.7335029782149</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
@@ -23509,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H14" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I14" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0.6592771345624158</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>86.25127718860955</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -23582,7 +23582,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -23627,19 +23627,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>78.76008195861911</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>9.458801139478595</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R16" t="n">
-        <v>74.23872090402212</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S16" t="n">
         <v>222.3574069614225</v>
@@ -23709,7 +23709,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23740,22 +23740,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>140.5709580622284</v>
+        <v>196.0381419695416</v>
       </c>
       <c r="H17" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I17" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.4777635765444</v>
@@ -23800,7 +23800,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>16.7212372212434</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23940,10 +23940,10 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U19" t="n">
         <v>286.0522703910642</v>
@@ -23974,19 +23974,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>166.3639631086199</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H20" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
         <v>205.224307868124</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>205.8649517235392</v>
@@ -24025,19 +24025,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>152.3986859055007</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="21">
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>85.54114061652112</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H21" t="n">
         <v>110.4625155221328</v>
@@ -24104,19 +24104,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T22" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U22" t="n">
         <v>286.0522703910642</v>
@@ -24189,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24208,28 +24208,28 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>125.3959181724593</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H23" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I23" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.8508227008771</v>
+        <v>106.1452301970803</v>
       </c>
       <c r="S23" t="n">
         <v>205.8649517235392</v>
@@ -24274,7 +24274,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="24">
@@ -24287,10 +24287,10 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
@@ -24335,22 +24335,22 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>48.369882270456</v>
+        <v>50.24743635262988</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>137.4289928041133</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
@@ -24411,10 +24411,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R25" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>222.3574069614225</v>
+        <v>216.8354279895965</v>
       </c>
       <c r="T25" t="n">
         <v>228.3324659915077</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.4326026497925</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24451,22 +24451,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>108.8342284136849</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
-        <v>63.86009604655084</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>109.7165980882301</v>
       </c>
       <c r="W26" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -24536,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>37.46324622143845</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>69.79890427930349</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
-        <v>49.41933934989927</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
         <v>286.0522703910642</v>
@@ -24663,7 +24663,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24682,28 +24682,28 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>92.70128833734009</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>206.2069649383725</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H29" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I29" t="n">
-        <v>186.6002475580612</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>205.8649517235392</v>
@@ -24742,10 +24742,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>96.57779178956685</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -24770,7 +24770,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>136.0232102050423</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T30" t="n">
-        <v>81.17361908359436</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>248.6299682608986</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R31" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>222.3574069614225</v>
+        <v>216.8354279895965</v>
       </c>
       <c r="T31" t="n">
         <v>228.3324659915077</v>
@@ -24900,7 +24900,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>107.1794502458071</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24919,22 +24919,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>125.3959181724595</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>82.32092541299585</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>133.0100561389383</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
@@ -24967,13 +24967,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S32" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -24982,7 +24982,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>312.3313295831672</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,7 +25004,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.69497976109122</v>
+        <v>53.01179716567946</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>111.8606417068519</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
         <v>224.6571770672012</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>278.9326847349724</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>115.0155552481151</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G35" t="n">
         <v>414.8547654038309</v>
@@ -25174,7 +25174,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
         <v>0.6592771345624158</v>
@@ -25204,7 +25204,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T35" t="n">
         <v>222.9651171964204</v>
@@ -25216,7 +25216,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>76.24630965895204</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25238,22 +25238,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>33.55291585501693</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S36" t="n">
         <v>168.9616139056444</v>
@@ -25289,19 +25289,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25368,13 +25368,13 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U37" t="n">
-        <v>107.1391437494558</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25402,19 +25402,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
-        <v>95.86195905424358</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>187.9001685480386</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25459,7 +25459,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>114.6868463558341</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>16.7212372212432</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25611,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>107.1794502458071</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C41" t="n">
-        <v>125.3959181724593</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>142.1881353833666</v>
       </c>
       <c r="F41" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G41" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25651,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="42">
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>50.24743635262988</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>139.6537966034037</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -25839,7 +25839,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U43" t="n">
         <v>286.0522703910642</v>
@@ -25848,7 +25848,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E44" t="n">
-        <v>142.1881353833666</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H44" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I44" t="n">
         <v>205.224307868124</v>
@@ -25924,10 +25924,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>87.60332115059845</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
@@ -25961,10 +25961,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.24743635262988</v>
+        <v>37.46324622143857</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26028,7 +26028,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
@@ -26040,7 +26040,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H46" t="n">
-        <v>131.7265118818278</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I46" t="n">
         <v>153.7585467974036</v>
@@ -26085,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>493554.8029506997</v>
+        <v>493554.8029506998</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>493554.8029506997</v>
+        <v>493554.8029506998</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493554.8029506998</v>
+        <v>493554.8029506996</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493554.8029506998</v>
+        <v>493554.8029506997</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>493554.8029506997</v>
+        <v>493554.8029506998</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493554.8029506997</v>
+        <v>493554.8029506998</v>
       </c>
     </row>
     <row r="9">
@@ -26319,7 +26319,7 @@
         <v>112565.130497528</v>
       </c>
       <c r="D2" t="n">
-        <v>112565.1304975279</v>
+        <v>112565.130497528</v>
       </c>
       <c r="E2" t="n">
         <v>112565.130497528</v>
@@ -26334,16 +26334,16 @@
         <v>112565.130497528</v>
       </c>
       <c r="I2" t="n">
+        <v>112565.1304975279</v>
+      </c>
+      <c r="J2" t="n">
+        <v>112565.1304975279</v>
+      </c>
+      <c r="K2" t="n">
+        <v>112565.1304975279</v>
+      </c>
+      <c r="L2" t="n">
         <v>112565.130497528</v>
-      </c>
-      <c r="J2" t="n">
-        <v>112565.130497528</v>
-      </c>
-      <c r="K2" t="n">
-        <v>112565.130497528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>112565.1304975279</v>
       </c>
       <c r="M2" t="n">
         <v>112565.130497528</v>
@@ -26355,7 +26355,7 @@
         <v>112565.130497528</v>
       </c>
       <c r="P2" t="n">
-        <v>112565.1304975279</v>
+        <v>112565.130497528</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808625</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="J4" t="n">
-        <v>205.3193574873219</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="K4" t="n">
         <v>205.3193574873218</v>
@@ -26453,7 +26453,7 @@
         <v>205.3193574873218</v>
       </c>
       <c r="N4" t="n">
-        <v>205.3193574873219</v>
+        <v>205.3193574873218</v>
       </c>
       <c r="O4" t="n">
         <v>205.3193574873218</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29863.05671406861</v>
+        <v>-41552.18573732449</v>
       </c>
       <c r="C6" t="n">
-        <v>62055.75565367124</v>
+        <v>50366.62663041535</v>
       </c>
       <c r="D6" t="n">
-        <v>62055.75565367121</v>
+        <v>50366.62663041538</v>
       </c>
       <c r="E6" t="n">
-        <v>95683.35565367126</v>
+        <v>83994.22663041537</v>
       </c>
       <c r="F6" t="n">
-        <v>95683.35565367126</v>
+        <v>83994.22663041535</v>
       </c>
       <c r="G6" t="n">
-        <v>95683.35565367123</v>
+        <v>83994.22663041537</v>
       </c>
       <c r="H6" t="n">
-        <v>95683.35565367126</v>
+        <v>83994.22663041535</v>
       </c>
       <c r="I6" t="n">
-        <v>95683.35565367123</v>
+        <v>83994.22663041532</v>
       </c>
       <c r="J6" t="n">
-        <v>23918.64316558499</v>
+        <v>12229.51414232908</v>
       </c>
       <c r="K6" t="n">
-        <v>95683.35565367124</v>
+        <v>83994.22663041532</v>
       </c>
       <c r="L6" t="n">
-        <v>95683.3556536712</v>
+        <v>83994.22663041535</v>
       </c>
       <c r="M6" t="n">
-        <v>95683.35565367121</v>
+        <v>83994.22663041535</v>
       </c>
       <c r="N6" t="n">
-        <v>95683.35565367121</v>
+        <v>83994.22663041533</v>
       </c>
       <c r="O6" t="n">
-        <v>95683.35565367126</v>
+        <v>83994.22663041535</v>
       </c>
       <c r="P6" t="n">
-        <v>95683.3556536712</v>
+        <v>83994.22663041535</v>
       </c>
     </row>
   </sheetData>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>56.78741806046166</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>81.99814951141209</v>
@@ -34944,7 +34944,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M5" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N5" t="n">
         <v>231.1630643817873</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>44.25337393024155</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
@@ -35029,10 +35029,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>270.5854737144654</v>
+        <v>4.327620151005966</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
         <v>81.99814951141209</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>36.7853831762164</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>274.2838073416025</v>
+        <v>149.951891953036</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M11" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N11" t="n">
         <v>231.1630643817873</v>
@@ -35430,7 +35430,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>199.9590986266935</v>
       </c>
       <c r="O12" t="n">
         <v>270.5854737144654</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
         <v>140.6484434930818</v>
@@ -35734,7 +35734,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>223.6594671380758</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L18" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>201.1341951806804</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2838073416025</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O18" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q18" t="n">
         <v>81.99814951141209</v>
@@ -36202,22 +36202,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L21" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
+        <v>142.4839011990109</v>
+      </c>
+      <c r="N21" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N21" t="n">
-        <v>82.55611253552989</v>
       </c>
       <c r="O21" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
+        <v>90.02410328955504</v>
+      </c>
+      <c r="N24" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8.025953778143149</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36457,7 +36457,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.059542658712941</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>140.6484434930818</v>
       </c>
       <c r="L27" t="n">
-        <v>36.78538317621649</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M27" t="n">
-        <v>274.2838073416025</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>216.1914763840509</v>
+        <v>142.4839011990109</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O30" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P30" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
-        <v>274.2838073416025</v>
+        <v>8.025953778143093</v>
       </c>
       <c r="N33" t="n">
         <v>274.2838073416025</v>
@@ -37168,7 +37168,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>66.32373477817289</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>90.02410328955521</v>
+        <v>8.025953778143265</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
@@ -37405,7 +37405,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>223.659467138076</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>270.5854737144654</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L42" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M42" t="n">
+        <v>130.4949932455015</v>
+      </c>
+      <c r="N42" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="N42" t="n">
-        <v>8.025953778143149</v>
-      </c>
       <c r="O42" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>200.5762321565626</v>
@@ -38104,10 +38104,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="N45" t="n">
-        <v>216.1914763840507</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
